--- a/Datasets/level.xlsx
+++ b/Datasets/level.xlsx
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D4" t="n">
         <v>436</v>
